--- a/biology/Botanique/Argyroxiphium_virescens/Argyroxiphium_virescens.xlsx
+++ b/biology/Botanique/Argyroxiphium_virescens/Argyroxiphium_virescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyroxiphium virescens était une espèce de plante à fleurs de la famille des Asteraceae. On la trouvait uniquement sur les îles Hawaï. Son habitat naturel était constitué par les forêts et les fruticées subtropicales et tropicales des montagnes humides. Elle est officiellement déclarée éteinte.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 février 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 février 2020) :
 variété Argyroxiphium virescens var. paludosa H. St. John</t>
         </is>
       </c>
